--- a/experiment_results/DataV2_F_VL0_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_F_VL0_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -674,10 +674,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>6.882591093117409</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E3">
         <v>131</v>
@@ -1700,19 +1700,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>7.28744939271255</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>10.12145748987854</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -2473,19 +2473,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -2549,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>4.8582995951417</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -2701,19 +2701,19 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>64</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>2.42914979757085</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -3005,19 +3005,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -4560,10 +4560,10 @@
         <v>126</v>
       </c>
       <c r="F2">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>52.63157894736842</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -4589,19 +4589,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>13.36032388663968</v>
+        <v>12.55060728744939</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>40.08097165991903</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -5092,10 +5092,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>32.79352226720648</v>
+        <v>34.0080971659919</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -5615,19 +5615,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>7.28744939271255</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G30">
-        <v>63.56275303643725</v>
+        <v>62.75303643724697</v>
       </c>
       <c r="H30">
         <v>118</v>
@@ -5856,19 +5856,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>17.40890688259109</v>
+        <v>14.97975708502024</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>48.98785425101214</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -5894,19 +5894,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>17.00404858299595</v>
+        <v>12.55060728744939</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>42.51012145748988</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -6435,10 +6435,10 @@
         <v>48</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>12.14574898785425</v>
+        <v>12.55060728744939</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -6587,10 +6587,10 @@
         <v>88</v>
       </c>
       <c r="F21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>10.93117408906883</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="H21">
         <v>189</v>
@@ -6920,19 +6920,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>7.28744939271255</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30">
-        <v>10.12145748987854</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H30">
         <v>118</v>
@@ -7005,10 +7005,10 @@
         <v>88</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="H32">
         <v>185</v>
@@ -9530,19 +9530,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>7.28744939271255</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>10.12145748987854</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -11076,19 +11076,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>16.19433198380567</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>43.31983805668016</v>
+        <v>27.53036437246963</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -11114,19 +11114,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13.36032388663968</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>39.27125506072874</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -11570,19 +11570,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>6.072874493927126</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -11807,10 +11807,10 @@
         <v>88</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>6.072874493927126</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H21">
         <v>214</v>
@@ -11836,19 +11836,19 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>10.12145748987854</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E22">
         <v>64</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>7.692307692307693</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -12102,19 +12102,19 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2.834008097165992</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E29">
         <v>145</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>7.28744939271255</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H29">
         <v>227</v>
@@ -12216,19 +12216,19 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>5.263157894736842</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E32">
         <v>88</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H32">
         <v>212</v>
@@ -12254,19 +12254,19 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33">
-        <v>53.03643724696357</v>
+        <v>53.44129554655871</v>
       </c>
       <c r="E33">
         <v>127</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>4.048582995951417</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H33">
         <v>97</v>
@@ -12913,19 +12913,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -12989,10 +12989,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -13141,19 +13141,19 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>5.668016194331984</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E22">
         <v>64</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -13445,19 +13445,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -14218,19 +14218,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -14294,10 +14294,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>4.8582995951417</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -14446,19 +14446,19 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>64</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>2.42914979757085</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -14750,19 +14750,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -15523,19 +15523,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -16055,19 +16055,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>9.311740890688259</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -17677,19 +17677,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4">
-        <v>66.39676113360325</v>
+        <v>66.80161943319838</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4">
-        <v>66.39676113360325</v>
+        <v>66.80161943319838</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -17791,19 +17791,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>57.89473684210527</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G7">
-        <v>57.89473684210527</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -18095,19 +18095,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>4.8582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G15">
-        <v>68.82591093117408</v>
+        <v>70.44534412955466</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -18171,19 +18171,19 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17">
-        <v>51.82186234817814</v>
+        <v>52.22672064777328</v>
       </c>
       <c r="E17">
         <v>48</v>
       </c>
       <c r="F17">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17">
-        <v>38.46153846153847</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="H17">
         <v>109</v>
@@ -18209,19 +18209,19 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>11.33603238866397</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E18">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18">
-        <v>78.13765182186235</v>
+        <v>77.7327935222672</v>
       </c>
       <c r="H18">
         <v>218</v>
@@ -18906,19 +18906,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>23.48178137651822</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>52.22672064777328</v>
+        <v>24.2914979757085</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -18944,19 +18944,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>25.91093117408907</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>48.17813765182186</v>
+        <v>14.17004048582996</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -19476,19 +19476,19 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>24.69635627530364</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E17">
         <v>48</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>11.33603238866397</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H17">
         <v>109</v>
@@ -19514,10 +19514,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>10.93117408906883</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -19628,19 +19628,19 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E21">
         <v>88</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>4.8582995951417</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H21">
         <v>214</v>
@@ -19675,10 +19675,10 @@
         <v>64</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>8.906882591093117</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -19932,19 +19932,19 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>3.238866396761134</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E29">
         <v>145</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>7.28744939271255</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H29">
         <v>227</v>
@@ -20046,19 +20046,19 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>6.072874493927126</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E32">
         <v>88</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>3.238866396761134</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H32">
         <v>212</v>
@@ -20084,19 +20084,19 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>52.63157894736842</v>
+        <v>53.03643724696357</v>
       </c>
       <c r="E33">
         <v>127</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>2.834008097165992</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H33">
         <v>97</v>
@@ -20743,19 +20743,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -21275,19 +21275,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -22821,19 +22821,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>10.52631578947368</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>25.91093117408907</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -22859,19 +22859,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6.882591093117409</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>23.88663967611336</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -23429,19 +23429,19 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>11.33603238866397</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E18">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>18.21862348178137</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="H18">
         <v>218</v>
@@ -23847,10 +23847,10 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E29">
         <v>145</v>
@@ -23961,19 +23961,19 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E32">
         <v>88</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>8.097165991902834</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H32">
         <v>212</v>
@@ -24126,19 +24126,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>14.17004048582996</v>
+        <v>13.76518218623482</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G2">
-        <v>55.46558704453442</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -24164,19 +24164,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>11.74089068825911</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>40.89068825910931</v>
+        <v>38.8663967611336</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -24392,19 +24392,19 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D9">
-        <v>51.417004048583</v>
+        <v>61.94331983805667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="G9">
-        <v>51.417004048583</v>
+        <v>61.94331983805667</v>
       </c>
       <c r="H9">
         <v>228</v>
@@ -24667,10 +24667,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>32.79352226720648</v>
+        <v>34.0080971659919</v>
       </c>
       <c r="H16">
         <v>81</v>
@@ -25963,19 +25963,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -26039,10 +26039,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>4.8582995951417</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -26200,10 +26200,10 @@
         <v>64</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>5.263157894736842</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -26495,19 +26495,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>4.8582995951417</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -26812,19 +26812,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4">
-        <v>67.61133603238866</v>
+        <v>66.80161943319838</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4">
-        <v>67.61133603238866</v>
+        <v>66.80161943319838</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -26926,19 +26926,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>63.56275303643725</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>63.56275303643725</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -27230,19 +27230,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>67.61133603238866</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -27268,19 +27268,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G16">
-        <v>39.27125506072874</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -27344,10 +27344,10 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E18">
         <v>42</v>
@@ -27800,19 +27800,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>7.28744939271255</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G30">
-        <v>78.94736842105263</v>
+        <v>72.8744939271255</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -30727,19 +30727,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -31183,19 +31183,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>6.072874493927126</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -31715,19 +31715,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -32003,10 +32003,10 @@
         <v>131</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H3">
         <v>129</v>
@@ -32488,19 +32488,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -32535,10 +32535,10 @@
         <v>48</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>4.048582995951417</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -32573,10 +32573,10 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>2.024291497975709</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H18">
         <v>36</v>
@@ -32678,10 +32678,10 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>5.263157894736842</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E21">
         <v>88</v>
@@ -32991,10 +32991,10 @@
         <v>145</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>6.477732793522267</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -33020,19 +33020,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E30">
         <v>43</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.28744939271255</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H30">
         <v>26</v>
@@ -33096,10 +33096,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>4.8582995951417</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E32">
         <v>88</v>
@@ -33793,19 +33793,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -35871,19 +35871,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>10.52631578947368</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>25.91093117408907</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -35909,19 +35909,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6.882591093117409</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>23.88663967611336</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -36479,19 +36479,19 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>11.33603238866397</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E18">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>18.21862348178137</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="H18">
         <v>218</v>
@@ -36897,10 +36897,10 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E29">
         <v>145</v>
@@ -37011,19 +37011,19 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E32">
         <v>88</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>8.097165991902834</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H32">
         <v>212</v>
@@ -37176,19 +37176,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>6.882591093117409</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E2">
         <v>126</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>14.17004048582996</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -37214,19 +37214,19 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E3">
         <v>131</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>9.7165991902834</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -37670,10 +37670,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E15">
         <v>43</v>
@@ -37907,10 +37907,10 @@
         <v>88</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>14.5748987854251</v>
+        <v>13.76518218623482</v>
       </c>
       <c r="H21">
         <v>214</v>
@@ -38325,10 +38325,10 @@
         <v>88</v>
       </c>
       <c r="F32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32">
-        <v>13.76518218623482</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="H32">
         <v>212</v>
